--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148BF43F-07D9-45E8-83D0-76F19085C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A44D4A-43B1-4A3F-B797-01623CC40F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -224,30 +224,36 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$4</c:f>
+              <c:f>'Main Board'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44945</c:v>
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$4</c:f>
+              <c:f>'Main Board'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,29 +306,35 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$4</c:f>
+              <c:f>'Main Board'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44945</c:v>
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$4</c:f>
+              <c:f>'Main Board'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -1083,13 +1095,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117021</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1407,7 +1419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1415,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1450,7 +1462,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B3">
         <v>38</v>
@@ -1459,15 +1471,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>44947</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A44D4A-43B1-4A3F-B797-01623CC40F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74065F9-7E61-4653-895A-72EB5B9A62B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -180,93 +180,11 @@
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Main Board'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Open</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:tailEnd type="triangle"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>44944</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44946</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44947</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7460-40F6-81B0-1A364AA91A1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Main Board'!$C$1</c:f>
@@ -289,27 +207,12 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:tailEnd type="triangle"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$5</c:f>
+              <c:f>'Main Board'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -318,16 +221,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$5</c:f>
+              <c:f>'Main Board'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -336,6 +245,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,6 +258,85 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7460-40F6-81B0-1A364AA91A1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Main Board'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Main Board'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Main Board'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7460-40F6-81B0-1A364AA91A1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1095,13 +1089,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117021</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1427,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1482,15 +1476,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>44948</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>44949</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74065F9-7E61-4653-895A-72EB5B9A62B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516959C-16AE-4381-B4A1-0168E6F716EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$7</c:f>
+              <c:f>'Main Board'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -227,16 +227,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$7</c:f>
+              <c:f>'Main Board'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -250,6 +256,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -288,10 +300,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$7</c:f>
+              <c:f>'Main Board'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -306,16 +318,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$7</c:f>
+              <c:f>'Main Board'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -330,6 +348,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,13 +1113,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117021</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1421,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1498,15 +1522,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>44950</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>44951</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516959C-16AE-4381-B4A1-0168E6F716EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B583848-5043-44BF-9298-3CFD16BCB2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,7 +353,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1538,10 +1538,10 @@
         <v>44951</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B583848-5043-44BF-9298-3CFD16BCB2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D99E76-FEEC-429A-B829-090D730F9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -209,10 +209,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$9</c:f>
+              <c:f>'Main Board'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -233,16 +233,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>44951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$9</c:f>
+              <c:f>'Main Board'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -263,6 +266,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,10 +306,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$9</c:f>
+              <c:f>'Main Board'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -324,16 +330,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>44951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$9</c:f>
+              <c:f>'Main Board'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -354,6 +363,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,13 +1125,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117021</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1445,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1544,15 +1556,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>44952</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D99E76-FEEC-429A-B829-090D730F9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5DBC01-7986-4E63-8B09-A4D8FBA70028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percent Closed</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -131,11 +137,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -145,6 +171,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,7 +208,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Open/Closed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
@@ -209,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$10</c:f>
+              <c:f>'Main Board'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -236,16 +328,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$10</c:f>
+              <c:f>'Main Board'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -269,6 +367,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,10 +410,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$10</c:f>
+              <c:f>'Main Board'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -333,16 +437,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$10</c:f>
+              <c:f>'Main Board'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -366,6 +476,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,7 +692,392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Main Board'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent Closed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Main Board'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Main Board'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20408163265306123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24489795918367346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24489795918367346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25490196078431371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29310344827586204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B25-4793-B89F-EC8673DE4A74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="939170112"/>
+        <c:axId val="939170528"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="939170112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="939170528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="939170528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="939170112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1119,19 +1620,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>117021</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>117022</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>527958</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1152,6 +2156,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111578</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6811B5-C6EE-648A-4815-B73B1522DD04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1449,7 +2489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1457,18 +2497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="13.3828125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.3828125" customWidth="1"/>
+    <col min="5" max="5" width="13.3828125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1478,8 +2520,14 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>44944</v>
       </c>
@@ -1489,8 +2537,16 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2" s="13">
+        <f xml:space="preserve"> B2 + C2</f>
+        <v>48</v>
+      </c>
+      <c r="E2" s="9">
+        <f xml:space="preserve"> C2 / D2</f>
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>44946</v>
       </c>
@@ -1500,8 +2556,16 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D11" si="0" xml:space="preserve"> B3 + C3</f>
+        <v>48</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E11" si="1" xml:space="preserve"> C3 / D3</f>
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>44947</v>
       </c>
@@ -1511,8 +2575,16 @@
       <c r="C4">
         <v>10</v>
       </c>
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20408163265306123</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>44948</v>
       </c>
@@ -1522,8 +2594,16 @@
       <c r="C5">
         <v>10</v>
       </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20408163265306123</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>44949</v>
       </c>
@@ -1533,8 +2613,16 @@
       <c r="C6">
         <v>12</v>
       </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24489795918367346</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>44950</v>
       </c>
@@ -1544,8 +2632,16 @@
       <c r="C7">
         <v>12</v>
       </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24489795918367346</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>44951</v>
       </c>
@@ -1555,8 +2651,16 @@
       <c r="C8">
         <v>13</v>
       </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25490196078431371</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>44952</v>
       </c>
@@ -1566,16 +2670,64 @@
       <c r="C9">
         <v>15</v>
       </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.28846153846153844</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>44972</v>
+      </c>
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.28846153846153844</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>44973</v>
+      </c>
+      <c r="B11">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29310344827586204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5DBC01-7986-4E63-8B09-A4D8FBA70028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95862A99-828A-42D9-AA66-D9AC9BC10787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="2923" yWindow="1971" windowWidth="24686" windowHeight="13149" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$12</c:f>
+              <c:f>'Main Board'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -334,16 +334,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$12</c:f>
+              <c:f>'Main Board'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -373,6 +379,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,10 +422,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$12</c:f>
+              <c:f>'Main Board'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -443,16 +455,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$12</c:f>
+              <c:f>'Main Board'!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -482,6 +500,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,392 +716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Main Board'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent Closed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>44944</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44946</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44948</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44949</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44950</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44951</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44952</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44972</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44973</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Main Board'!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20408163265306123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20408163265306123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24489795918367346</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24489795918367346</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25490196078431371</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29310344827586204</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B25-4793-B89F-EC8673DE4A74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="939170112"/>
-        <c:axId val="939170528"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="939170112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm\-yy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="939170528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="939170528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="939170112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1620,522 +1259,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2156,42 +1292,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>111578</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6811B5-C6EE-648A-4815-B73B1522DD04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2497,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2557,11 +1657,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D11" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D13" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E11" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E13" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2717,17 +1817,55 @@
         <v>0.29310344827586204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="11"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29310344827586204</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <v>44975</v>
+      </c>
+      <c r="B13">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.32758620689655171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95862A99-828A-42D9-AA66-D9AC9BC10787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157BAF1D-E383-4636-9EFC-7296F5286DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2923" yWindow="1971" windowWidth="24686" windowHeight="13149" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$14</c:f>
+              <c:f>'Main Board'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -340,16 +340,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$14</c:f>
+              <c:f>'Main Board'!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -384,6 +387,9 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
@@ -422,10 +428,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$14</c:f>
+              <c:f>'Main Board'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -461,16 +467,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$14</c:f>
+              <c:f>'Main Board'!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -505,7 +514,10 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,13 +1277,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1597,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1657,11 +1669,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D13" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D14" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E13" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E14" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -1841,31 +1853,50 @@
         <v>44975</v>
       </c>
       <c r="B13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="1"/>
-        <v>0.32758620689655171</v>
+        <v>0.32203389830508472</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="11"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>44976</v>
+      </c>
+      <c r="B14">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.31666666666666665</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157BAF1D-E383-4636-9EFC-7296F5286DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7DAD4-1284-48EA-86A8-A20EA1776920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$15</c:f>
+              <c:f>'Main Board'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -343,16 +343,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$15</c:f>
+              <c:f>'Main Board'!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -391,6 +394,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,10 +434,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$15</c:f>
+              <c:f>'Main Board'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -470,16 +476,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$15</c:f>
+              <c:f>'Main Board'!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -518,6 +527,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,13 +1289,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1609,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1669,11 +1681,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D14" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D15" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E14" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E15" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -1886,17 +1898,36 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="11"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7DAD4-1284-48EA-86A8-A20EA1776920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ADA18-6F60-4AC4-A1A3-C910B9C0D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$16</c:f>
+              <c:f>'Main Board'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -346,16 +346,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$16</c:f>
+              <c:f>'Main Board'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -397,6 +403,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,10 +446,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$16</c:f>
+              <c:f>'Main Board'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -479,16 +491,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$16</c:f>
+              <c:f>'Main Board'!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -529,6 +547,12 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -1289,13 +1313,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1621,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1681,11 +1705,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D15" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D17" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E15" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E17" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -1917,17 +1941,55 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="11"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>44984</v>
+      </c>
+      <c r="B16">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.32786885245901637</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34426229508196721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Online\Games\UEFPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ADA18-6F60-4AC4-A1A3-C910B9C0D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD6CC3-2E5E-427B-8060-7726363BCA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$18</c:f>
+              <c:f>'Main Board'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -352,16 +352,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45066</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$18</c:f>
+              <c:f>'Main Board'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -409,6 +421,18 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,10 +470,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$18</c:f>
+              <c:f>'Main Board'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -497,16 +521,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45066</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$18</c:f>
+              <c:f>'Main Board'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -554,6 +590,18 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,13 +1361,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1645,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1705,11 +1753,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D17" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D21" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E17" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E21" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -1979,17 +2027,93 @@
         <v>0.34426229508196721</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>45042</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34426229508196721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>45043</v>
+      </c>
+      <c r="B19">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33870967741935482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>45066</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34426229508196721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>45067</v>
+      </c>
+      <c r="B21">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD6CC3-2E5E-427B-8060-7726363BCA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C319B1F-FE1D-4FB9-A458-D8DAB3448CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$22</c:f>
+              <c:f>'Main Board'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -364,16 +364,22 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45067</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$22</c:f>
+              <c:f>'Main Board'!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -432,6 +438,12 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
@@ -470,10 +482,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$22</c:f>
+              <c:f>'Main Board'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -533,16 +545,22 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45067</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$22</c:f>
+              <c:f>'Main Board'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -602,6 +620,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,13 +1385,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1693,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1753,11 +1777,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D21" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D23" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E21" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E23" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2103,17 +2127,55 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>45079</v>
+      </c>
+      <c r="B22">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>45080</v>
+      </c>
+      <c r="B23">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33846153846153848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C319B1F-FE1D-4FB9-A458-D8DAB3448CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB889F2-1178-456E-BE09-943D028D511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$24</c:f>
+              <c:f>'Main Board'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -370,16 +370,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45080</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45081</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$24</c:f>
+              <c:f>'Main Board'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -445,6 +451,12 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,10 +494,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$24</c:f>
+              <c:f>'Main Board'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -551,16 +563,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45080</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45081</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$24</c:f>
+              <c:f>'Main Board'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -626,6 +644,12 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,13 +1409,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1717,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1777,11 +1801,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D23" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D25" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E23" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E25" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2165,17 +2189,55 @@
         <v>0.33846153846153848</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>45081</v>
+      </c>
+      <c r="B24">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33846153846153848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>45082</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.36923076923076925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB889F2-1178-456E-BE09-943D028D511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFDC1E-52AB-420E-9906-5A656E90E0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$26</c:f>
+              <c:f>'Main Board'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -376,16 +376,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45084</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$26</c:f>
+              <c:f>'Main Board'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -457,6 +463,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,10 +506,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$26</c:f>
+              <c:f>'Main Board'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -569,16 +581,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45084</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$26</c:f>
+              <c:f>'Main Board'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -650,6 +668,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,13 +1433,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1741,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1801,11 +1825,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D25" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D27" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E25" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E27" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2227,17 +2251,55 @@
         <v>0.36923076923076925</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>45084</v>
+      </c>
+      <c r="B26">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.36923076923076925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>45085</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.3968253968253968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFDC1E-52AB-420E-9906-5A656E90E0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A585F-5C8F-4F17-8F44-0A0B5927AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$28</c:f>
+              <c:f>'Main Board'!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -382,16 +382,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45085</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$28</c:f>
+              <c:f>'Main Board'!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -469,6 +472,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,10 +512,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$28</c:f>
+              <c:f>'Main Board'!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -587,16 +593,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45085</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$28</c:f>
+              <c:f>'Main Board'!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -674,6 +683,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,13 +1445,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1765,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1825,11 +1837,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D27" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D28" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E27" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E28" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2289,17 +2301,36 @@
         <v>0.3968253968253968</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
+        <v>45086</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A585F-5C8F-4F17-8F44-0A0B5927AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3517FF1-DEB1-4344-9AE6-3DCF84FF07F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$29</c:f>
+              <c:f>'Main Board'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -385,16 +385,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$29</c:f>
+              <c:f>'Main Board'!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -475,6 +478,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,10 +518,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$29</c:f>
+              <c:f>'Main Board'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -596,16 +602,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$29</c:f>
+              <c:f>'Main Board'!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -686,6 +695,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,13 +1457,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1777,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1837,11 +1849,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D28" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D29" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E28" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E29" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2320,17 +2332,36 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
+        <v>45087</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3517FF1-DEB1-4344-9AE6-3DCF84FF07F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB1B3F-2069-48D9-BEE6-B9F0E034E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$30</c:f>
+              <c:f>'Main Board'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -388,16 +388,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45087</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45178</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$30</c:f>
+              <c:f>'Main Board'!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -481,6 +487,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,10 +530,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$30</c:f>
+              <c:f>'Main Board'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -605,16 +617,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45087</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45178</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$30</c:f>
+              <c:f>'Main Board'!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -698,6 +716,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,13 +1481,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1789,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1849,11 +1873,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D29" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D31" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E29" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E31" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2351,17 +2375,55 @@
         <v>0.484375</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>45179</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.48529411764705882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB1B3F-2069-48D9-BEE6-B9F0E034E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B0D5D-39D0-46D8-98BB-9354BACF5094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$32</c:f>
+              <c:f>'Main Board'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -394,16 +394,22 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45184</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$C$2:$C$32</c:f>
+              <c:f>'Main Board'!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -493,6 +499,12 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,10 +542,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Main Board'!$A$2:$A$32</c:f>
+              <c:f>'Main Board'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -623,16 +635,22 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45184</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Board'!$B$2:$B$32</c:f>
+              <c:f>'Main Board'!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -722,6 +740,12 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,13 +1505,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1813,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1873,11 +1897,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D31" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D33" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E31" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E33" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2413,17 +2437,55 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
+        <v>45184</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>0.48529411764705882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
+        <v>45185</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>34</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B0D5D-39D0-46D8-98BB-9354BACF5094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1A3D01-066F-4CFB-A707-6AF90A78671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -301,6 +301,13 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>'Main Board'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
@@ -401,11 +408,21 @@
                 <c:pt idx="31">
                   <c:v>45185</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Main Board'!$C$2:$C$35</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>'Main Board'!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -505,6 +522,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,6 +562,13 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>'Main Board'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
@@ -642,11 +669,21 @@
                 <c:pt idx="31">
                   <c:v>45185</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Main Board'!$B$2:$B$35</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>'Main Board'!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -746,6 +783,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,13 +1545,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1837,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1897,11 +1937,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D33" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D34" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E33" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E34" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2475,17 +2515,36 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
+        <v>45186</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>0.51470588235294112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1A3D01-066F-4CFB-A707-6AF90A78671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D50759-41E8-4287-B0EC-BDDE433CD94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$34</c:f>
+              <c:f>'Main Board'!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -410,6 +410,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45186</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,14 +425,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$34</c:f>
+              <c:f>'Main Board'!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -525,6 +531,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,14 +577,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$34</c:f>
+              <c:f>'Main Board'!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -671,6 +683,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45186</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,14 +698,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$34</c:f>
+              <c:f>'Main Board'!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -786,6 +804,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,13 +1569,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1877,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1937,11 +1961,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D34" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D36" si="0" xml:space="preserve"> B3 + C3</f>
         <v>48</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E34" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E36" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -2534,17 +2558,55 @@
         <v>0.51470588235294112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
+        <v>45191</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.51470588235294112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
+        <v>45192</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D50759-41E8-4287-B0EC-BDDE433CD94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F7C864-9399-4540-B296-1A138AFC4D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="20980" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,117 +304,81 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$37</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$36</c:f>
+              <c:f>'Main Board'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44946</c:v>
+                  <c:v>44947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44947</c:v>
+                  <c:v>44949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44948</c:v>
+                  <c:v>44951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44949</c:v>
+                  <c:v>44952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44950</c:v>
+                  <c:v>44973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44951</c:v>
+                  <c:v>44975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44952</c:v>
+                  <c:v>44976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44972</c:v>
+                  <c:v>44977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44973</c:v>
+                  <c:v>44984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44974</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44975</c:v>
+                  <c:v>45043</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44976</c:v>
+                  <c:v>45066</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44977</c:v>
+                  <c:v>45067</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44984</c:v>
+                  <c:v>45080</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44985</c:v>
+                  <c:v>45082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45042</c:v>
+                  <c:v>45085</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45043</c:v>
+                  <c:v>45086</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45066</c:v>
+                  <c:v>45087</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45067</c:v>
+                  <c:v>45179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45079</c:v>
+                  <c:v>45185</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45080</c:v>
+                  <c:v>45186</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45081</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45082</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45084</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45085</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45087</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45178</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45179</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45184</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45185</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45186</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45191</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>45192</c:v>
                 </c:pt>
               </c:numCache>
@@ -425,14 +389,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$37</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$36</c:f>
+              <c:f>'Main Board'!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -440,102 +404,66 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
@@ -577,117 +505,81 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$37</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$36</c:f>
+              <c:f>'Main Board'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44946</c:v>
+                  <c:v>44947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44947</c:v>
+                  <c:v>44949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44948</c:v>
+                  <c:v>44951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44949</c:v>
+                  <c:v>44952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44950</c:v>
+                  <c:v>44973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44951</c:v>
+                  <c:v>44975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44952</c:v>
+                  <c:v>44976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44972</c:v>
+                  <c:v>44977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44973</c:v>
+                  <c:v>44984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44974</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44975</c:v>
+                  <c:v>45043</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44976</c:v>
+                  <c:v>45066</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44977</c:v>
+                  <c:v>45067</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44984</c:v>
+                  <c:v>45080</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44985</c:v>
+                  <c:v>45082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45042</c:v>
+                  <c:v>45085</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45043</c:v>
+                  <c:v>45086</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45066</c:v>
+                  <c:v>45087</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45067</c:v>
+                  <c:v>45179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45079</c:v>
+                  <c:v>45185</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45080</c:v>
+                  <c:v>45186</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45081</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45082</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45084</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45085</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45087</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45178</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45179</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45184</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45185</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45186</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45191</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>45192</c:v>
                 </c:pt>
               </c:numCache>
@@ -698,117 +590,81 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$37</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$36</c:f>
+              <c:f>'Main Board'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -831,7 +687,7 @@
         <c:axId val="488154191"/>
         <c:axId val="488154607"/>
       </c:areaChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="488154191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -877,10 +733,11 @@
         </c:txPr>
         <c:crossAx val="488154607"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="488154607"/>
         <c:scaling>
@@ -1569,13 +1426,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1901,20 +1758,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.3828125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.3828125" customWidth="1"/>
-    <col min="5" max="5" width="13.3828125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44944</v>
       </c>
@@ -1950,34 +1807,34 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D36" si="0" xml:space="preserve"> B3 + C3</f>
-        <v>48</v>
+        <f t="shared" ref="D3:D24" si="0" xml:space="preserve"> B3 + C3</f>
+        <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E36" si="1" xml:space="preserve"> C3 / D3</f>
-        <v>0.20833333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" ref="E3:E24" si="1" xml:space="preserve"> C3 / D3</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>44947</v>
+        <v>44949</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" si="0"/>
@@ -1985,628 +1842,400 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" si="1"/>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.24489795918367346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>44948</v>
+        <v>44951</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="1"/>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.25490196078431371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B6">
         <v>37</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="1"/>
-        <v>0.24489795918367346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.28846153846153844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>44950</v>
+        <v>44973</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.24489795918367346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.29310344827586204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>44951</v>
+        <v>44975</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" s="13">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="1"/>
-        <v>0.25490196078431371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.32203389830508472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>44952</v>
+        <v>44976</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="1"/>
-        <v>0.28846153846153844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>44972</v>
+        <v>44977</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>0.28846153846153844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B11">
         <v>41</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>0.29310344827586204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.32786885245901637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>44974</v>
+        <v>44985</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="1"/>
-        <v>0.29310344827586204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.34426229508196721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>44975</v>
+        <v>45043</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="1"/>
-        <v>0.32203389830508472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.33870967741935482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>44976</v>
+        <v>45066</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>0.31666666666666665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.34426229508196721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>44977</v>
+        <v>45067</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>44984</v>
+        <v>45080</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="1"/>
-        <v>0.32786885245901637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.33846153846153848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>44985</v>
+        <v>45082</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="1"/>
-        <v>0.34426229508196721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.36923076923076925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>45042</v>
+        <v>45085</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="1"/>
-        <v>0.34426229508196721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.3968253968253968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>45043</v>
+        <v>45086</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="1"/>
-        <v>0.33870967741935482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>45066</v>
+        <v>45087</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="1"/>
-        <v>0.34426229508196721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>45067</v>
+        <v>45179</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="1"/>
-        <v>0.34375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.48529411764705882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>45079</v>
+        <v>45185</v>
       </c>
       <c r="B22">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="1"/>
-        <v>0.34375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>45080</v>
+        <v>45186</v>
       </c>
       <c r="B23">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="1"/>
-        <v>0.33846153846153848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.51470588235294112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>45081</v>
+        <v>45192</v>
       </c>
       <c r="B24">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="1"/>
-        <v>0.33846153846153848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
-        <v>45082</v>
-      </c>
-      <c r="B25">
-        <v>41</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" s="13">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="1"/>
-        <v>0.36923076923076925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
-        <v>45084</v>
-      </c>
-      <c r="B26">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="D26" s="13">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="1"/>
-        <v>0.36923076923076925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
-        <v>45085</v>
-      </c>
-      <c r="B27">
-        <v>38</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27" s="13">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="1"/>
-        <v>0.3968253968253968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="7">
-        <v>45086</v>
-      </c>
-      <c r="B28">
-        <v>36</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" s="13">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
-        <v>45087</v>
-      </c>
-      <c r="B29">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>31</v>
-      </c>
-      <c r="D29" s="13">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="1"/>
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="7">
-        <v>45178</v>
-      </c>
-      <c r="B30">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>31</v>
-      </c>
-      <c r="D30" s="13">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="1"/>
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="7">
-        <v>45179</v>
-      </c>
-      <c r="B31">
-        <v>35</v>
-      </c>
-      <c r="C31">
-        <v>33</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="1"/>
-        <v>0.48529411764705882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="7">
-        <v>45184</v>
-      </c>
-      <c r="B32">
-        <v>35</v>
-      </c>
-      <c r="C32">
-        <v>33</v>
-      </c>
-      <c r="D32" s="13">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="1"/>
-        <v>0.48529411764705882</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="7">
-        <v>45185</v>
-      </c>
-      <c r="B33">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>34</v>
-      </c>
-      <c r="D33" s="13">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="7">
-        <v>45186</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>35</v>
-      </c>
-      <c r="D34" s="13">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="1"/>
-        <v>0.51470588235294112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="7">
-        <v>45191</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>35</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="1"/>
-        <v>0.51470588235294112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="7">
-        <v>45192</v>
-      </c>
-      <c r="B36">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>36</v>
-      </c>
-      <c r="D36" s="13">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E36" s="9">
-        <f t="shared" si="1"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F7C864-9399-4540-B296-1A138AFC4D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23A366-65CE-406F-B168-2D58934D55CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="20980" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$25</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$24</c:f>
+              <c:f>'Main Board'!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -380,6 +380,15 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,14 +398,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$25</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$24</c:f>
+              <c:f>'Main Board'!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -465,6 +474,15 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,14 +523,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$25</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$24</c:f>
+              <c:f>'Main Board'!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -581,6 +599,15 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,14 +617,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$25</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$24</c:f>
+              <c:f>'Main Board'!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -666,6 +693,15 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,13 +1462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1758,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1818,11 +1854,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D24" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D27" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E24" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E27" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2225,17 +2261,74 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>45276</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>37</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.52857142857142858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>45277</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>45289</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23A366-65CE-406F-B168-2D58934D55CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1805AE-B670-4DD7-BCA1-F826AA670618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$28</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$27</c:f>
+              <c:f>'Main Board'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -389,6 +389,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,14 +407,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$28</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$27</c:f>
+              <c:f>'Main Board'!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -483,6 +492,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,14 +541,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$28</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$27</c:f>
+              <c:f>'Main Board'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -608,6 +626,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,14 +644,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$28</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$27</c:f>
+              <c:f>'Main Board'!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -702,6 +729,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,13 +1498,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1498,9 +1534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1538,7 +1574,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1644,7 +1680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1786,7 +1822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1794,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,11 +1890,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D27" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D30" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E27" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E30" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2318,17 +2354,74 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>45296</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.57534246575342463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>45371</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>45379</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.65151515151515149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1805AE-B670-4DD7-BCA1-F826AA670618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B206ED-ED6F-491B-BB1D-1D50BD249EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="5600" yWindow="5370" windowWidth="28800" windowHeight="15370" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$31</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$30</c:f>
+              <c:f>'Main Board'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -398,6 +398,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,14 +410,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$31</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$30</c:f>
+              <c:f>'Main Board'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -501,6 +504,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,14 +547,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$31</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$30</c:f>
+              <c:f>'Main Board'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -635,6 +641,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,14 +653,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$31</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$30</c:f>
+              <c:f>'Main Board'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -738,6 +747,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,13 +1510,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1830,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1890,11 +1902,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D30" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D31" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E30" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E31" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2411,17 +2423,36 @@
         <v>0.65151515151515149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>45383</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B206ED-ED6F-491B-BB1D-1D50BD249EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC8500-4AA4-428C-93F5-91EC5EA8A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="5370" windowWidth="28800" windowHeight="15370" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$32</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$31</c:f>
+              <c:f>'Main Board'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -401,6 +401,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,14 +413,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$32</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$31</c:f>
+              <c:f>'Main Board'!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -507,6 +510,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,14 +553,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$32</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$31</c:f>
+              <c:f>'Main Board'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -644,6 +650,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,14 +662,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$32</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$31</c:f>
+              <c:f>'Main Board'!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -750,6 +759,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,13 +1522,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1842,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1902,11 +1914,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D31" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D32" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E31" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E32" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2442,17 +2454,36 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>45431</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC8500-4AA4-428C-93F5-91EC5EA8A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B815F40-550E-43DD-9892-DAA694D94B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$33</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$32</c:f>
+              <c:f>'Main Board'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -404,6 +404,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45431</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,14 +416,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$33</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$32</c:f>
+              <c:f>'Main Board'!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -513,6 +516,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,14 +559,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$33</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$32</c:f>
+              <c:f>'Main Board'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -653,6 +659,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45431</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,14 +671,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$33</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$32</c:f>
+              <c:f>'Main Board'!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -762,6 +771,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,13 +1534,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1854,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1914,11 +1926,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D32" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D33" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E32" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E33" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2473,17 +2485,36 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>45437</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>46</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B815F40-550E-43DD-9892-DAA694D94B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FA136-34D7-4E4A-B7C1-1F571F826D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="9830" yWindow="0" windowWidth="19830" windowHeight="20970" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$34</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$33</c:f>
+              <c:f>'Main Board'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -407,6 +407,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,14 +419,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$34</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$33</c:f>
+              <c:f>'Main Board'!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -519,6 +522,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,14 +565,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$34</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$33</c:f>
+              <c:f>'Main Board'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -662,6 +668,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,14 +680,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$34</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$33</c:f>
+              <c:f>'Main Board'!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -773,6 +782,9 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1534,13 +1546,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1866,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,11 +1938,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D33" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D34" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E33" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E34" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2504,17 +2516,36 @@
         <v>0.69696969696969702</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>45478</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>0.70149253731343286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FA136-34D7-4E4A-B7C1-1F571F826D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44117FD-6B13-4116-896F-19D1784681B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9830" yWindow="0" windowWidth="19830" windowHeight="20970" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$36</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$34</c:f>
+              <c:f>'Main Board'!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -410,6 +410,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,14 +422,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$36</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$34</c:f>
+              <c:f>'Main Board'!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -525,6 +528,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,14 +571,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$36</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$34</c:f>
+              <c:f>'Main Board'!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -671,6 +677,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,14 +689,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$35</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$36</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$34</c:f>
+              <c:f>'Main Board'!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -786,6 +795,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,13 +1558,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1878,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1938,11 +1950,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D34" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D35" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E34" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E35" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2535,17 +2547,36 @@
         <v>0.70149253731343286</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>45506</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.73529411764705888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44117FD-6B13-4116-896F-19D1784681B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0DE87-E87A-4B0A-B911-7D8A72311408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$36</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$38</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$35</c:f>
+              <c:f>'Main Board'!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -413,6 +413,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,14 +428,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$36</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$38</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$35</c:f>
+              <c:f>'Main Board'!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -531,6 +537,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,14 +583,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$36</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$38</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$35</c:f>
+              <c:f>'Main Board'!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -680,6 +692,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,14 +707,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$36</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$38</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$35</c:f>
+              <c:f>'Main Board'!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -798,6 +816,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,13 +1582,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1890,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,11 +1974,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D35" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D37" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E35" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E37" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2566,17 +2590,55 @@
         <v>0.73529411764705888</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>45510</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>53</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75714285714285712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>45515</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77464788732394363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0DE87-E87A-4B0A-B911-7D8A72311408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882CE65C-98D8-4C4F-9A19-439C8348E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$38</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$39</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$37</c:f>
+              <c:f>'Main Board'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -419,6 +419,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,14 +431,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$38</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$39</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$37</c:f>
+              <c:f>'Main Board'!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -543,6 +546,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,14 +589,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$38</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$39</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$37</c:f>
+              <c:f>'Main Board'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -698,6 +704,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,14 +716,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$38</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$39</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$37</c:f>
+              <c:f>'Main Board'!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -822,6 +831,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,13 +1594,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1914,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1974,11 +1986,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D37" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D38" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E37" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E38" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2628,17 +2640,36 @@
         <v>0.77464788732394363</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>45540</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="1"/>
+        <v>0.78873239436619713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882CE65C-98D8-4C4F-9A19-439C8348E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AF63C0-8E75-4FAC-8762-F517910AC406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$39</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$40</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$38</c:f>
+              <c:f>'Main Board'!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -422,6 +422,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,14 +434,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$39</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$40</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$38</c:f>
+              <c:f>'Main Board'!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -548,6 +551,9 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
@@ -589,14 +595,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$39</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$40</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$38</c:f>
+              <c:f>'Main Board'!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -707,6 +713,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,14 +725,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$39</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$40</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$38</c:f>
+              <c:f>'Main Board'!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -834,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,13 +1606,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1926,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1986,11 +1998,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D38" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D39" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E38" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E39" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2659,17 +2671,36 @@
         <v>0.78873239436619713</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>45543</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AF63C0-8E75-4FAC-8762-F517910AC406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5E37D-5B4B-4A0D-B40E-5AE81D939B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$40</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$39</c:f>
+              <c:f>'Main Board'!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -425,6 +425,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,14 +437,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$40</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$39</c:f>
+              <c:f>'Main Board'!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -555,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +601,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$40</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$39</c:f>
+              <c:f>'Main Board'!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -716,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,14 +734,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$40</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$39</c:f>
+              <c:f>'Main Board'!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -846,6 +855,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,13 +1618,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1938,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1998,11 +2010,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D39" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D40" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E39" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E40" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2690,17 +2702,36 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>1020</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>57</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5E37D-5B4B-4A0D-B40E-5AE81D939B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE870B-FB5D-4BC2-9E4D-E29B9746148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$41</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$42</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$40</c:f>
+              <c:f>'Main Board'!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -428,6 +428,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,14 +440,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$41</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$42</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$40</c:f>
+              <c:f>'Main Board'!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -560,6 +563,9 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
@@ -601,14 +607,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$41</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$42</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$40</c:f>
+              <c:f>'Main Board'!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -725,6 +731,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,14 +743,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$41</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$42</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$40</c:f>
+              <c:f>'Main Board'!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -858,6 +867,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,13 +1630,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1950,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2010,11 +2022,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D40" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D41" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E40" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E41" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2721,17 +2733,36 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>45603</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>57</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE870B-FB5D-4BC2-9E4D-E29B9746148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6526822-11B1-4E3C-A8D6-2A52EC0ADF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board" sheetId="1" r:id="rId1"/>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$42</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$43</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$41</c:f>
+              <c:f>'Main Board'!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -431,6 +431,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,14 +443,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$42</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$43</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$41</c:f>
+              <c:f>'Main Board'!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -567,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,14 +613,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$42</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$43</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$41</c:f>
+              <c:f>'Main Board'!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -734,6 +740,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,14 +752,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$42</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$43</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$41</c:f>
+              <c:f>'Main Board'!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -870,6 +879,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,13 +1642,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1962,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2022,11 +2034,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D41" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D42" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E41" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E42" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2752,17 +2764,36 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>45605</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>58</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="1"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6526822-11B1-4E3C-A8D6-2A52EC0ADF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3DF70-8D95-49DA-9C04-2E1642B6A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -304,14 +304,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$43</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$44</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$42</c:f>
+              <c:f>'Main Board'!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -434,6 +434,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45605</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,14 +446,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$43</c15:sqref>
+                    <c15:sqref>'Main Board'!$C$2:$C$44</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$42</c:f>
+              <c:f>'Main Board'!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -573,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,14 +619,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$43</c15:sqref>
+                    <c15:sqref>'Main Board'!$A$2:$A$44</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$42</c:f>
+              <c:f>'Main Board'!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -743,6 +749,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45605</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,14 +761,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$43</c15:sqref>
+                    <c15:sqref>'Main Board'!$B$2:$B$44</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$42</c:f>
+              <c:f>'Main Board'!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -882,6 +891,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,14 +1654,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>527958</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1974,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2034,11 +2046,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D42" si="0" xml:space="preserve"> B3 + C3</f>
+        <f t="shared" ref="D3:D43" si="0" xml:space="preserve"> B3 + C3</f>
         <v>49</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E42" si="1" xml:space="preserve"> C3 / D3</f>
+        <f t="shared" ref="E3:E43" si="1" xml:space="preserve"> C3 / D3</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
@@ -2783,17 +2795,36 @@
         <v>0.76315789473684215</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>45647</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>61</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="1"/>
+        <v>0.88405797101449279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantChart.xlsx
+++ b/gantChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Games\UEFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3DF70-8D95-49DA-9C04-2E1642B6A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5204A-8B05-4EB8-8AE4-914D902F3653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{28D99B71-C0F5-45BA-8373-277E5ED99469}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Percent Closed</t>
+  </si>
+  <si>
+    <t>Backlog</t>
   </si>
 </sst>
 </file>
@@ -301,17 +304,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$44</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$43</c:f>
+              <c:f>'Main Board'!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -437,23 +433,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45647</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45676</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Main Board'!$C$2:$C$44</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Main Board'!$C$2:$C$43</c:f>
+              <c:f>'Main Board'!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -579,6 +574,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,17 +617,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Main Board'!$A$2:$A$44</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Main Board'!$A$2:$A$43</c:f>
+              <c:f>'Main Board'!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44944</c:v>
                 </c:pt>
@@ -752,23 +746,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45647</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45676</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Main Board'!$B$2:$B$44</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Main Board'!$B$2:$B$43</c:f>
+              <c:f>'Main Board'!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -894,6 +887,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,6 +900,47 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7460-40F6-81B0-1A364AA91A1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Main Board'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backlog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Main Board'!$D$2:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="43">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9503-4CB3-BB4B-DC235F358087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1654,13 +1694,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1986,20 +2026,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11762E8-6472-452A-80EF-BCA0E65D4CA0}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" style="9" customWidth="1"/>
+    <col min="2" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2009,14 +2049,17 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44944</v>
       </c>
@@ -2026,16 +2069,16 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <f xml:space="preserve"> B2 + C2</f>
+      <c r="E2" s="13">
+        <f t="shared" ref="E2:E44" si="0" xml:space="preserve"> B2 + C2 + D2</f>
         <v>48</v>
       </c>
-      <c r="E2" s="9">
-        <f xml:space="preserve"> C2 / D2</f>
+      <c r="F2" s="9">
+        <f t="shared" ref="F2:F44" si="1" xml:space="preserve"> C2 / E2</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44947</v>
       </c>
@@ -2045,16 +2088,16 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="13">
-        <f t="shared" ref="D3:D43" si="0" xml:space="preserve"> B3 + C3</f>
+      <c r="E3" s="13">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E43" si="1" xml:space="preserve"> C3 / D3</f>
+      <c r="F3" s="9">
+        <f t="shared" si="1"/>
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44949</v>
       </c>
@@ -2064,16 +2107,16 @@
       <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <f t="shared" si="1"/>
         <v>0.24489795918367346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44951</v>
       </c>
@@ -2083,16 +2126,16 @@
       <c r="C5">
         <v>13</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>0.25490196078431371</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44952</v>
       </c>
@@ -2102,16 +2145,16 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>0.28846153846153844</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44973</v>
       </c>
@@ -2121,16 +2164,16 @@
       <c r="C7">
         <v>17</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>0.29310344827586204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44975</v>
       </c>
@@ -2140,16 +2183,16 @@
       <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="13">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>0.32203389830508472</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44976</v>
       </c>
@@ -2159,16 +2202,16 @@
       <c r="C9">
         <v>19</v>
       </c>
-      <c r="D9" s="13">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44977</v>
       </c>
@@ -2178,16 +2221,16 @@
       <c r="C10">
         <v>20</v>
       </c>
-      <c r="D10" s="13">
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>44984</v>
       </c>
@@ -2197,16 +2240,16 @@
       <c r="C11">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>0.32786885245901637</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>44985</v>
       </c>
@@ -2216,16 +2259,16 @@
       <c r="C12">
         <v>21</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <f t="shared" si="1"/>
         <v>0.34426229508196721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>45043</v>
       </c>
@@ -2235,16 +2278,16 @@
       <c r="C13">
         <v>21</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
         <v>0.33870967741935482</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>45066</v>
       </c>
@@ -2254,16 +2297,16 @@
       <c r="C14">
         <v>21</v>
       </c>
-      <c r="D14" s="13">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <f t="shared" si="1"/>
         <v>0.34426229508196721</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>45067</v>
       </c>
@@ -2273,16 +2316,16 @@
       <c r="C15">
         <v>22</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="9">
         <f t="shared" si="1"/>
         <v>0.34375</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>45080</v>
       </c>
@@ -2292,16 +2335,16 @@
       <c r="C16">
         <v>22</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
         <f t="shared" si="1"/>
         <v>0.33846153846153848</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>45082</v>
       </c>
@@ -2311,16 +2354,16 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <f t="shared" si="1"/>
         <v>0.36923076923076925</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>45085</v>
       </c>
@@ -2330,16 +2373,16 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="9">
         <f t="shared" si="1"/>
         <v>0.3968253968253968</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>45086</v>
       </c>
@@ -2349,16 +2392,16 @@
       <c r="C19">
         <v>27</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>45087</v>
       </c>
@@ -2368,16 +2411,16 @@
       <c r="C20">
         <v>31</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <f t="shared" si="1"/>
         <v>0.484375</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>45179</v>
       </c>
@@ -2387,16 +2430,16 @@
       <c r="C21">
         <v>33</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="9">
         <f t="shared" si="1"/>
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>45185</v>
       </c>
@@ -2406,16 +2449,16 @@
       <c r="C22">
         <v>34</v>
       </c>
-      <c r="D22" s="13">
+      <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="9">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>45186</v>
       </c>
@@ -2425,16 +2468,16 @@
       <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23" s="13">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="9">
         <f t="shared" si="1"/>
         <v>0.51470588235294112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>45192</v>
       </c>
@@ -2444,16 +2487,16 @@
       <c r="C24">
         <v>36</v>
       </c>
-      <c r="D24" s="13">
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="9">
         <f t="shared" si="1"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>45276</v>
       </c>
@@ -2463,16 +2506,16 @@
       <c r="C25">
         <v>37</v>
       </c>
-      <c r="D25" s="13">
+      <c r="E25" s="13">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="9">
         <f t="shared" si="1"/>
         <v>0.52857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>45277</v>
       </c>
@@ -2482,16 +2525,16 @@
       <c r="C26">
         <v>38</v>
       </c>
-      <c r="D26" s="13">
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="E26" s="9">
+      <c r="F26" s="9">
         <f t="shared" si="1"/>
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>45289</v>
       </c>
@@ -2501,16 +2544,16 @@
       <c r="C27">
         <v>42</v>
       </c>
-      <c r="D27" s="13">
+      <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="E27" s="9">
+      <c r="F27" s="9">
         <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>45296</v>
       </c>
@@ -2520,16 +2563,16 @@
       <c r="C28">
         <v>42</v>
       </c>
-      <c r="D28" s="13">
+      <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="E28" s="9">
+      <c r="F28" s="9">
         <f t="shared" si="1"/>
         <v>0.57534246575342463</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>45371</v>
       </c>
@@ -2539,16 +2582,16 @@
       <c r="C29">
         <v>42</v>
       </c>
-      <c r="D29" s="13">
+      <c r="E29" s="13">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="E29" s="9">
+      <c r="F29" s="9">
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>45379</v>
       </c>
@@ -2558,16 +2601,16 @@
       <c r="C30">
         <v>43</v>
       </c>
-      <c r="D30" s="13">
+      <c r="E30" s="13">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F30" s="9">
         <f t="shared" si="1"/>
         <v>0.65151515151515149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>45383</v>
       </c>
@@ -2577,16 +2620,16 @@
       <c r="C31">
         <v>44</v>
       </c>
-      <c r="D31" s="13">
+      <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="E31" s="9">
+      <c r="F31" s="9">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>45431</v>
       </c>
@@ -2596,16 +2639,16 @@
       <c r="C32">
         <v>45</v>
       </c>
-      <c r="D32" s="13">
+      <c r="E32" s="13">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F32" s="9">
         <f t="shared" si="1"/>
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>45437</v>
       </c>
@@ -2615,16 +2658,16 @@
       <c r="C33">
         <v>46</v>
       </c>
-      <c r="D33" s="13">
+      <c r="E33" s="13">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="E33" s="9">
+      <c r="F33" s="9">
         <f t="shared" si="1"/>
         <v>0.69696969696969702</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>45478</v>
       </c>
@@ -2634,16 +2677,16 @@
       <c r="C34">
         <v>47</v>
       </c>
-      <c r="D34" s="13">
+      <c r="E34" s="13">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="E34" s="9">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>0.70149253731343286</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>45506</v>
       </c>
@@ -2653,16 +2696,16 @@
       <c r="C35">
         <v>50</v>
       </c>
-      <c r="D35" s="13">
+      <c r="E35" s="13">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E35" s="9">
+      <c r="F35" s="9">
         <f t="shared" si="1"/>
         <v>0.73529411764705888</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>45510</v>
       </c>
@@ -2672,16 +2715,16 @@
       <c r="C36">
         <v>53</v>
       </c>
-      <c r="D36" s="13">
+      <c r="E36" s="13">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E36" s="9">
+      <c r="F36" s="9">
         <f t="shared" si="1"/>
         <v>0.75714285714285712</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>45515</v>
       </c>
@@ -2691,16 +2734,16 @@
       <c r="C37">
         <v>55</v>
       </c>
-      <c r="D37" s="13">
+      <c r="E37" s="13">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E37" s="9">
+      <c r="F37" s="9">
         <f t="shared" si="1"/>
         <v>0.77464788732394363</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>45540</v>
       </c>
@@ -2710,16 +2753,16 @@
       <c r="C38">
         <v>56</v>
       </c>
-      <c r="D38" s="13">
+      <c r="E38" s="13">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E38" s="9">
+      <c r="F38" s="9">
         <f t="shared" si="1"/>
         <v>0.78873239436619713</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>45543</v>
       </c>
@@ -2729,16 +2772,16 @@
       <c r="C39">
         <v>56</v>
       </c>
-      <c r="D39" s="13">
+      <c r="E39" s="13">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="E39" s="9">
+      <c r="F39" s="9">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>1020</v>
       </c>
@@ -2748,16 +2791,16 @@
       <c r="C40">
         <v>57</v>
       </c>
-      <c r="D40" s="13">
+      <c r="E40" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E40" s="9">
+      <c r="F40" s="9">
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>45603</v>
       </c>
@@ -2767,16 +2810,16 @@
       <c r="C41">
         <v>57</v>
       </c>
-      <c r="D41" s="13">
+      <c r="E41" s="13">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E41" s="9">
+      <c r="F41" s="9">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>45605</v>
       </c>
@@ -2786,16 +2829,16 @@
       <c r="C42">
         <v>58</v>
       </c>
-      <c r="D42" s="13">
+      <c r="E42" s="13">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E42" s="9">
+      <c r="F42" s="9">
         <f t="shared" si="1"/>
         <v>0.76315789473684215</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>45647</v>
       </c>
@@ -2805,26 +2848,69 @@
       <c r="C43">
         <v>61</v>
       </c>
-      <c r="D43" s="13">
+      <c r="E43" s="13">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E43" s="9">
+      <c r="F43" s="9">
         <f t="shared" si="1"/>
         <v>0.88405797101449279</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>45676</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
+      <c r="E44" s="13">
+        <f xml:space="preserve"> B44 + C44 + D44</f>
+        <v>77</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80519480519480524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>45680</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45" s="13">
+        <f xml:space="preserve"> B45 + C45 + D45</f>
+        <v>95</v>
+      </c>
+      <c r="F45" s="9">
+        <f xml:space="preserve"> C45 / E45</f>
+        <v>0.66315789473684206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
